--- a/data/trans_orig/Barthel-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Barthel-Provincia-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>92.4200114814103</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>97.35986117448068</v>
+        <v>97.3598611744807</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>92.53892400044786</v>
+        <v>92.02302708400364</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>93.56773796435432</v>
+        <v>93.51228863879999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88.3837104874938</v>
+        <v>88.82190733004255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98.0209571841532</v>
+        <v>98.03649740246792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>92.60460217977575</v>
+        <v>93.1596031806116</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>80.68414660306817</v>
+        <v>80.89083923769395</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>85.6817490404158</v>
+        <v>84.70443012933987</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>92.88455160729234</v>
+        <v>93.21466982486503</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>94.43667671894336</v>
+        <v>94.61366729670917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>87.87811182444379</v>
+        <v>88.13357839535543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88.63417779876099</v>
+        <v>88.40804471698583</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>95.76765462772015</v>
+        <v>95.5468755997174</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>99.31552924544722</v>
+        <v>99.29654869237532</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>98.59001647563194</v>
+        <v>98.47972589609631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96.59892084029076</v>
+        <v>96.7322551119081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99.55943534696439</v>
+        <v>99.53323592763624</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>99.68864575931968</v>
+        <v>99.70944302653596</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>91.25554009894427</v>
+        <v>91.28711294669078</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>94.90344423986289</v>
+        <v>94.84350303772207</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>97.47001754455076</v>
+        <v>97.54418076580913</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>99.18095181922546</v>
+        <v>99.10420149052273</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94.23150030432053</v>
+        <v>94.33769436878605</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94.99320599398978</v>
+        <v>94.80084409206781</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>98.30356178650008</v>
+        <v>98.25117162427594</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>93.51342568185085</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>90.01122086060028</v>
+        <v>90.01122086060026</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>96.29539367417438</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>95.04648157790372</v>
+        <v>95.37829113402196</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>89.02848150679378</v>
+        <v>89.22161142623563</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94.80489172195155</v>
+        <v>94.9073387623895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91.98327792559122</v>
+        <v>92.38944996483663</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>91.32478878546173</v>
+        <v>91.01062128152412</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>82.94828483126429</v>
+        <v>82.54356654510717</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>89.67348877945859</v>
+        <v>89.34854474312907</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>87.08065657376898</v>
+        <v>86.94206215058142</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>93.90536884514835</v>
+        <v>93.82179454410829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86.96522609727583</v>
+        <v>87.5221088636646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92.751807390735</v>
+        <v>92.70760168187083</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>90.1470440848679</v>
+        <v>90.14777009662662</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>99.41518997239955</v>
+        <v>99.40848909687793</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>97.36860639909919</v>
+        <v>97.35312240807293</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>99.12649850527562</v>
+        <v>99.10840562496084</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97.79793988712179</v>
+        <v>97.66037652619309</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>97.25029320239901</v>
+        <v>97.22732257277669</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>92.48222482963337</v>
+        <v>92.54780445009172</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>96.14050698537679</v>
+        <v>96.07113205762241</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>92.53842915324645</v>
+        <v>92.34994217635979</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>97.96022879325173</v>
+        <v>97.76550152526012</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>93.65109191875416</v>
+        <v>93.57936591164989</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>96.98049788245335</v>
+        <v>96.89555476861094</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>94.10253019242739</v>
+        <v>94.12002923346779</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>96.91574854250945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91.97672592795735</v>
+        <v>91.97672592795732</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>96.07223482080329</v>
@@ -953,7 +953,7 @@
         <v>94.5788291944293</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>89.87838688391204</v>
+        <v>89.87838688391201</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>96.95595166657674</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>94.04281485058038</v>
+        <v>93.65220888044678</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>83.69467251903509</v>
+        <v>82.99861643052493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91.94174371333557</v>
+        <v>92.69143046791059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88.58094891022444</v>
+        <v>88.64590889253478</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>92.65243142326115</v>
+        <v>92.55309960699788</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>82.27731394834545</v>
+        <v>81.95502169123957</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>86.38446182114072</v>
+        <v>86.18828247350226</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>86.60866959827067</v>
+        <v>86.60268422020184</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>94.64178238506572</v>
+        <v>94.83853712081577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85.07168971605809</v>
+        <v>85.06621804817864</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90.81427437542825</v>
+        <v>91.14823010185019</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>88.47147563886598</v>
+        <v>88.74055097827076</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>99.69024770461026</v>
+        <v>99.58931897590116</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>96.49587034746266</v>
+        <v>96.44937071808218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>98.9558499740527</v>
+        <v>98.80741555145811</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>94.62939120366858</v>
+        <v>94.46562184298054</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>97.9356845521131</v>
+        <v>98.04625331575245</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>94.13757297292372</v>
+        <v>93.80641668541506</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>98.12586541188816</v>
+        <v>98.20575696359782</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>92.41639961657218</v>
+        <v>92.52214060200734</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>98.19480861855864</v>
+        <v>98.35527006248088</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93.6047539114582</v>
+        <v>93.47219853529502</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>97.80360688177508</v>
+        <v>97.7704527217369</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>92.83010729763207</v>
+        <v>92.82335152416175</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>95.60050263050164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98.29787034234698</v>
+        <v>98.29787034234694</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>96.2268111694336</v>
@@ -1089,7 +1089,7 @@
         <v>95.62058438572328</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>94.15390650747823</v>
+        <v>94.15390650747824</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>97.24663150823754</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>94.0050220042922</v>
+        <v>94.12472542951835</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>92.08057447735506</v>
+        <v>91.99257200170247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91.87879251808675</v>
+        <v>91.85280599196496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97.33245857015007</v>
+        <v>97.32763335216167</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>93.33795865874426</v>
+        <v>93.17703824477879</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>90.99418215378941</v>
+        <v>91.18045819203179</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>93.55946978433956</v>
+        <v>93.38066818474525</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>92.20595010721178</v>
+        <v>92.38982380900302</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>95.15283230942705</v>
+        <v>95.20182102264417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92.70994917633303</v>
+        <v>92.76062875230539</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>93.81228669187504</v>
+        <v>93.78788083616077</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>94.66385730022375</v>
+        <v>94.64692460882175</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>99.68866143824756</v>
+        <v>99.75037534182228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>98.03713439447338</v>
+        <v>97.83620728892971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>97.5873015375401</v>
+        <v>97.49795334012271</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98.96864009669966</v>
+        <v>98.86987311517755</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>97.85485567059219</v>
+        <v>97.95351250545234</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>96.00321993133559</v>
+        <v>96.00012290686902</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>97.12254552264582</v>
+        <v>97.27157344325059</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>95.62310190049814</v>
+        <v>95.80111672373842</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>98.33786329412676</v>
+        <v>98.39017118307</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>96.37393207584938</v>
+        <v>96.41709333694671</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96.8629036801991</v>
+        <v>96.84804901975703</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>96.86749339964693</v>
+        <v>96.81381605787634</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>98.36960876179161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94.44989309805831</v>
+        <v>94.44989309805823</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>91.23460309077065</v>
@@ -1225,7 +1225,7 @@
         <v>92.25003030368049</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>91.59031222326769</v>
+        <v>91.5903122232677</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>91.17826079911983</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>82.25518585514517</v>
+        <v>82.7116900399207</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>84.78073413337377</v>
+        <v>84.12276555531483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92.84231341004461</v>
+        <v>92.97054944604712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90.96747677805443</v>
+        <v>90.13405487838439</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>83.11120581524172</v>
+        <v>80.92488133936175</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>85.94394745658161</v>
+        <v>86.57792022773771</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>87.04044497064424</v>
+        <v>87.45017562233025</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>88.58228098012162</v>
+        <v>88.11843104600783</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>85.00935112998633</v>
+        <v>85.27694269937201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87.18486761805124</v>
+        <v>87.4398866706901</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91.8315720556924</v>
+        <v>92.1132140423512</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>90.01938654957293</v>
+        <v>90.22249505010241</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>96.46760716774932</v>
+        <v>96.65144779402029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>97.05913512436004</v>
+        <v>97.14652723608496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99.61852699637986</v>
+        <v>99.62138487864999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97.1205123915028</v>
+        <v>96.67683657334402</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>95.87391893094923</v>
+        <v>95.81105446351519</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>94.80143481510844</v>
+        <v>95.38942074747385</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>95.54564031272902</v>
+        <v>95.58870728788398</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>94.07273788179508</v>
+        <v>94.06434006204749</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>95.2598274916441</v>
+        <v>95.04275584388029</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94.84708764898923</v>
+        <v>95.14515331218645</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97.0933094310268</v>
+        <v>97.01501605063117</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>94.56500846456073</v>
+        <v>94.48543426976389</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>88.79524650354752</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>87.62948116860206</v>
+        <v>87.62948116860204</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>96.84554665716701</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>95.51058382872533</v>
+        <v>95.37727107614649</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>88.74742191823761</v>
+        <v>88.31026309584567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85.44763281012719</v>
+        <v>85.61007675024202</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89.99250599143402</v>
+        <v>89.86637538132058</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>92.01176473484998</v>
+        <v>92.17616513232981</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>84.20693198587256</v>
+        <v>84.55643447042141</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>81.30282279042667</v>
+        <v>82.27210265201595</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>83.80510219644036</v>
+        <v>83.33520875868874</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>94.47063594020858</v>
+        <v>94.5968785642428</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88.22476953142859</v>
+        <v>88.24356078831974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>85.29560433950996</v>
+        <v>84.5479142879712</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>87.85965508115284</v>
+        <v>87.98924592180924</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>99.24576044775415</v>
+        <v>99.19774705260409</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>97.50975573659397</v>
+        <v>97.5278043523421</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95.03474489190128</v>
+        <v>95.56232079014541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95.24921028476005</v>
+        <v>95.37283291552399</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>98.09705523472586</v>
+        <v>98.29100014783165</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>94.38951439814433</v>
+        <v>94.25897247591587</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>93.59611640786808</v>
+        <v>93.58904105169751</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>90.840965583044</v>
+        <v>90.48742851838801</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>98.34907733210608</v>
+        <v>98.22978503255594</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>95.14939953570079</v>
+        <v>94.95383712515357</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>92.98621279950369</v>
+        <v>92.86134294527579</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>92.15359061026568</v>
+        <v>92.24245188075811</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>95.31727816041963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97.25094354082216</v>
+        <v>97.25094354082219</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>97.19009975020425</v>
@@ -1497,7 +1497,7 @@
         <v>92.47629186640323</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>92.20895961010712</v>
+        <v>92.20895961010713</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>97.78201096382115</v>
@@ -1509,7 +1509,7 @@
         <v>93.70302361790958</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>94.62938045763541</v>
+        <v>94.62938045763539</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>95.35665496815395</v>
+        <v>95.28363344916177</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>89.48686917447111</v>
+        <v>89.39138276714688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>92.19936790756009</v>
+        <v>91.76271925512643</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95.67361561832452</v>
+        <v>95.54119990393477</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>93.83574847526005</v>
+        <v>93.83142859579102</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>89.71355811589927</v>
+        <v>89.71498244608735</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>89.00374659916702</v>
+        <v>89.33845098619555</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>90.01361713029991</v>
+        <v>90.13236596830517</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>95.83211294338774</v>
+        <v>95.84824995769911</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91.01563195662159</v>
+        <v>91.03037693458133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>91.53728808814226</v>
+        <v>91.34678974315952</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>93.23407092952407</v>
+        <v>93.22653877796003</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>99.46187883201799</v>
+        <v>99.42923163841114</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>97.07919856405671</v>
+        <v>97.0535458341981</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>97.31263509885865</v>
+        <v>97.28522808731194</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>98.15741283113621</v>
+        <v>98.1851131483744</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>98.86266071536835</v>
+        <v>98.75221330882526</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>95.32062235688366</v>
+        <v>95.12739250463018</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>94.74505354710912</v>
+        <v>94.92041250201314</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>94.04834371149082</v>
+        <v>93.91123618313586</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>98.8903115948451</v>
+        <v>98.89243881197027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>95.37477877444903</v>
+        <v>95.47859527300562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95.34171300884034</v>
+        <v>95.27813415183762</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>95.71311857988773</v>
+        <v>95.76054616836001</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>93.88715308033987</v>
+        <v>93.70952192760635</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>94.86156235250789</v>
+        <v>94.74180356834349</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95.79022710062178</v>
+        <v>95.68268828958732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96.21992916693864</v>
+        <v>96.28084053053206</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>91.49851625530376</v>
+        <v>90.89884285065787</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>90.25669384802109</v>
+        <v>89.82128662624946</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>93.77118512369488</v>
+        <v>93.43548694796107</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>92.7379011928858</v>
+        <v>92.44852055635843</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>93.18834855282779</v>
+        <v>93.18219627352948</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>92.93628786861619</v>
+        <v>92.75120126516507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95.16204762502689</v>
+        <v>95.24439130240718</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>94.49577846627196</v>
+        <v>94.65627669779151</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>97.81478546604215</v>
+        <v>97.86372952349376</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>98.79632448808827</v>
+        <v>98.91109979940487</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>98.5987772514262</v>
+        <v>98.70220456958519</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>98.46822960789125</v>
+        <v>98.48566115506989</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>96.4255190196304</v>
+        <v>96.30328514761251</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>95.67330860729379</v>
+        <v>95.55759124488345</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>97.43442120728947</v>
+        <v>97.42641638156205</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>95.82759639436195</v>
+        <v>95.63703131716437</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>96.61510017352134</v>
+        <v>96.53132846649027</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>96.70229755610301</v>
+        <v>96.42027177664325</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>97.67414712216738</v>
+        <v>97.74279456634511</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>96.69914107882236</v>
+        <v>96.66316859867099</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>93.60570935862128</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>92.31161350005652</v>
+        <v>92.31161350005651</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>96.34922782695061</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>96.33603205042245</v>
+        <v>96.5399259819289</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>93.69115955976153</v>
+        <v>93.51298968718861</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>95.1918866252482</v>
+        <v>95.14886277850211</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95.70457143300573</v>
+        <v>95.66048220717519</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>94.36228993603909</v>
+        <v>94.297078925332</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>89.88298264875733</v>
+        <v>89.94443640404474</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>92.41524824084884</v>
+        <v>92.25334174527895</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>91.44993008703725</v>
+        <v>91.46639156013198</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>95.52550752232368</v>
+        <v>95.62757927467513</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>91.86195515480591</v>
+        <v>92.00151923597687</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>93.92108012834129</v>
+        <v>93.9678781866069</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>93.4897361691832</v>
+        <v>93.53997452034606</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>98.12309932710885</v>
+        <v>98.0694256275913</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>96.16746029932288</v>
+        <v>96.29050731959678</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97.04802328965694</v>
+        <v>96.98048914962318</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>97.00769523327088</v>
+        <v>96.98614991920893</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>96.46748363463651</v>
+        <v>96.4052674998523</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>92.79499305702106</v>
+        <v>92.7549017851954</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>94.68076029410061</v>
+        <v>94.65838071903794</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>93.03615513478947</v>
+        <v>93.11211591547263</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>96.97706321241664</v>
+        <v>96.99269619363292</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>93.94204957392759</v>
+        <v>93.87160706769859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>95.48153066003569</v>
+        <v>95.49914052789228</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>94.63057763417919</v>
+        <v>94.62098383664879</v>
       </c>
     </row>
     <row r="31">
